--- a/caso 1.xlsx
+++ b/caso 1.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G220"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
@@ -542,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -562,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -576,95 +576,19 @@
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
         <v>8</v>
       </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4</v>
-      </c>
-    </row>
+    </row>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
     <row r="9"/>
     <row r="10"/>
     <row r="11"/>
@@ -874,9 +798,6 @@
     <row r="215"/>
     <row r="216"/>
     <row r="217"/>
-    <row r="218"/>
-    <row r="219"/>
-    <row r="220"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -995,7 +916,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1013,7 +934,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6"/>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="7"/>
     <row r="8"/>
     <row r="9"/>
@@ -1310,7 +1250,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>5464</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1318,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
@@ -1332,13 +1272,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -1347,7 +1287,23 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6"/>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
     <row r="7"/>
     <row r="8"/>
     <row r="9"/>
